--- a/db_study/데이터베이스설계_모델링.xlsx
+++ b/db_study/데이터베이스설계_모델링.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JHC\web_studyB\study\db_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43D5DF0-5C0F-4349-ADE8-5317B76F29D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="캠핑장 대여 프로젝트" sheetId="3" r:id="rId1"/>
@@ -1512,7 +1513,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1710,7 +1711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1723,23 +1724,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1747,22 +1733,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1774,22 +1766,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1827,7 +1831,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="그룹 1"/>
+        <xdr:cNvPr id="2" name="그룹 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1840,7 +1850,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="타원 2"/>
+          <xdr:cNvPr id="3" name="타원 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1885,7 +1901,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="타원 3"/>
+          <xdr:cNvPr id="4" name="타원 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1930,7 +1952,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="타원 4"/>
+          <xdr:cNvPr id="5" name="타원 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1970,7 +1998,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="직사각형 5"/>
+          <xdr:cNvPr id="6" name="직사각형 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2010,7 +2044,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="직선 연결선 6"/>
+          <xdr:cNvPr id="7" name="직선 연결선 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="3" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2041,7 +2081,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="8" name="직선 연결선 7"/>
+          <xdr:cNvPr id="8" name="직선 연결선 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="5" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2072,7 +2118,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="직선 연결선 8"/>
+          <xdr:cNvPr id="9" name="직선 연결선 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="4" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2103,7 +2155,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="타원 9"/>
+          <xdr:cNvPr id="10" name="타원 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2143,7 +2201,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="직선 연결선 10"/>
+          <xdr:cNvPr id="11" name="직선 연결선 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2188,7 +2252,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="그룹 11"/>
+        <xdr:cNvPr id="12" name="그룹 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2201,7 +2271,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="타원 12"/>
+          <xdr:cNvPr id="13" name="타원 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2246,7 +2322,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="타원 13"/>
+          <xdr:cNvPr id="14" name="타원 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2291,7 +2373,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="타원 14"/>
+          <xdr:cNvPr id="15" name="타원 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2336,7 +2424,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="타원 15"/>
+          <xdr:cNvPr id="16" name="타원 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2381,7 +2475,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="직사각형 16"/>
+          <xdr:cNvPr id="17" name="직사각형 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2421,7 +2521,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="직선 연결선 17"/>
+          <xdr:cNvPr id="18" name="직선 연결선 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="13" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2452,7 +2558,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="직선 연결선 18"/>
+          <xdr:cNvPr id="19" name="직선 연결선 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="16" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2483,7 +2595,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="직선 연결선 19"/>
+          <xdr:cNvPr id="20" name="직선 연결선 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="15" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2514,7 +2632,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="직선 연결선 20"/>
+          <xdr:cNvPr id="21" name="직선 연결선 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="14" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2561,7 +2685,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="그룹 21"/>
+        <xdr:cNvPr id="22" name="그룹 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2574,7 +2704,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="타원 22"/>
+          <xdr:cNvPr id="23" name="타원 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2615,7 +2751,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="타원 23"/>
+          <xdr:cNvPr id="24" name="타원 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2655,7 +2797,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="타원 24"/>
+          <xdr:cNvPr id="25" name="타원 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2695,7 +2843,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="타원 25"/>
+          <xdr:cNvPr id="26" name="타원 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2735,7 +2889,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="다이아몬드 26"/>
+          <xdr:cNvPr id="27" name="다이아몬드 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2775,7 +2935,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="28" name="직선 연결선 27"/>
+          <xdr:cNvPr id="28" name="직선 연결선 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="23" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2806,7 +2972,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="29" name="직선 연결선 28"/>
+          <xdr:cNvPr id="29" name="직선 연결선 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="26" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2837,7 +3009,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="직선 연결선 29"/>
+          <xdr:cNvPr id="30" name="직선 연결선 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="25" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2868,7 +3046,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="31" name="직선 연결선 30"/>
+          <xdr:cNvPr id="31" name="직선 연결선 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="24" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2899,7 +3083,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="타원 31"/>
+          <xdr:cNvPr id="32" name="타원 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2939,7 +3129,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="33" name="직선 연결선 32"/>
+          <xdr:cNvPr id="33" name="직선 연결선 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="32" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2986,7 +3182,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="그룹 33"/>
+        <xdr:cNvPr id="34" name="그룹 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2999,7 +3201,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="타원 34"/>
+          <xdr:cNvPr id="35" name="타원 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3040,7 +3248,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="타원 35"/>
+          <xdr:cNvPr id="36" name="타원 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3080,7 +3294,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="타원 36"/>
+          <xdr:cNvPr id="37" name="타원 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3120,7 +3340,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="다이아몬드 37"/>
+          <xdr:cNvPr id="38" name="다이아몬드 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3160,7 +3386,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="39" name="직선 연결선 38"/>
+          <xdr:cNvPr id="39" name="직선 연결선 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="35" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -3191,7 +3423,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="40" name="직선 연결선 39"/>
+          <xdr:cNvPr id="40" name="직선 연결선 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="37" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -3222,7 +3460,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="41" name="직선 연결선 40"/>
+          <xdr:cNvPr id="41" name="직선 연결선 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="36" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -3253,7 +3497,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="타원 41"/>
+          <xdr:cNvPr id="42" name="타원 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3293,7 +3543,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="43" name="직선 연결선 42"/>
+          <xdr:cNvPr id="43" name="직선 연결선 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="42" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -3340,7 +3596,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="직선 연결선 43"/>
+        <xdr:cNvPr id="44" name="직선 연결선 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3384,7 +3646,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="직선 연결선 44"/>
+        <xdr:cNvPr id="45" name="직선 연결선 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="3"/>
           <a:endCxn id="17" idx="1"/>
@@ -3431,7 +3699,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="직선 연결선 45"/>
+        <xdr:cNvPr id="46" name="직선 연결선 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
           <a:endCxn id="38" idx="1"/>
@@ -3478,7 +3752,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="직선 연결선 46"/>
+        <xdr:cNvPr id="47" name="직선 연결선 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="38" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -3524,7 +3804,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="그룹 47"/>
+        <xdr:cNvPr id="48" name="그룹 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3537,7 +3823,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="직사각형 48"/>
+          <xdr:cNvPr id="49" name="직사각형 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3617,7 +3909,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="직사각형 49"/>
+          <xdr:cNvPr id="50" name="직사각형 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3716,7 +4014,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="그룹 50"/>
+        <xdr:cNvPr id="51" name="그룹 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3729,7 +4033,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="직사각형 51"/>
+          <xdr:cNvPr id="52" name="직사각형 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3801,7 +4111,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="직사각형 52"/>
+          <xdr:cNvPr id="53" name="직사각형 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3970,7 +4286,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="54" name="그룹 53"/>
+        <xdr:cNvPr id="54" name="그룹 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3983,7 +4305,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="직사각형 54"/>
+          <xdr:cNvPr id="55" name="직사각형 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4051,7 +4379,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="직사각형 55"/>
+          <xdr:cNvPr id="56" name="직사각형 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4172,7 +4506,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="그룹 56"/>
+        <xdr:cNvPr id="57" name="그룹 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4185,7 +4525,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="직사각형 57"/>
+          <xdr:cNvPr id="58" name="직사각형 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4264,7 +4610,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="직사각형 58"/>
+          <xdr:cNvPr id="59" name="직사각형 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4363,7 +4715,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="60" name="그룹 59"/>
+        <xdr:cNvPr id="60" name="그룹 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4376,7 +4734,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="61" name="직선 연결선 60"/>
+          <xdr:cNvPr id="61" name="직선 연결선 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="50" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -4407,7 +4771,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="62" name="직선 연결선 61"/>
+          <xdr:cNvPr id="62" name="직선 연결선 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4436,7 +4806,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="타원 62"/>
+          <xdr:cNvPr id="63" name="타원 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4473,7 +4849,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="64" name="직선 연결선 63"/>
+          <xdr:cNvPr id="64" name="직선 연결선 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4502,7 +4884,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="65" name="직선 연결선 64"/>
+          <xdr:cNvPr id="65" name="직선 연결선 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="63" idx="2"/>
           </xdr:cNvCxnSpPr>
@@ -4533,7 +4921,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="66" name="직선 연결선 65"/>
+          <xdr:cNvPr id="66" name="직선 연결선 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="63" idx="2"/>
           </xdr:cNvCxnSpPr>
@@ -4580,7 +4974,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="67" name="그룹 66"/>
+        <xdr:cNvPr id="67" name="그룹 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4593,7 +4993,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="68" name="직선 연결선 67"/>
+          <xdr:cNvPr id="68" name="직선 연결선 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4622,7 +5028,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="69" name="직선 연결선 68"/>
+          <xdr:cNvPr id="69" name="직선 연결선 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4651,7 +5063,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="타원 69"/>
+          <xdr:cNvPr id="70" name="타원 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4688,7 +5106,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="71" name="직선 연결선 70"/>
+          <xdr:cNvPr id="71" name="직선 연결선 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4717,7 +5141,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="72" name="직선 연결선 71"/>
+          <xdr:cNvPr id="72" name="직선 연결선 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="70" idx="2"/>
           </xdr:cNvCxnSpPr>
@@ -4748,7 +5178,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="73" name="직선 연결선 72"/>
+          <xdr:cNvPr id="73" name="직선 연결선 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="70" idx="2"/>
           </xdr:cNvCxnSpPr>
@@ -4795,7 +5231,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="74" name="그룹 73"/>
+        <xdr:cNvPr id="74" name="그룹 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4808,7 +5250,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="75" name="직선 연결선 74"/>
+          <xdr:cNvPr id="75" name="직선 연결선 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4837,7 +5285,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="76" name="직선 연결선 75"/>
+          <xdr:cNvPr id="76" name="직선 연결선 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4866,7 +5320,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="77" name="직선 연결선 76"/>
+          <xdr:cNvPr id="77" name="직선 연결선 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4911,7 +5371,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="78" name="그룹 77"/>
+        <xdr:cNvPr id="78" name="그룹 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4924,7 +5390,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="79" name="직선 연결선 78"/>
+          <xdr:cNvPr id="79" name="직선 연결선 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4953,7 +5425,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="80" name="직선 연결선 79"/>
+          <xdr:cNvPr id="80" name="직선 연결선 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4982,7 +5460,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="81" name="직선 연결선 80"/>
+          <xdr:cNvPr id="81" name="직선 연결선 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5032,7 +5516,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="다이아몬드 2"/>
+        <xdr:cNvPr id="3" name="다이아몬드 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5087,7 +5577,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="타원 5"/>
+        <xdr:cNvPr id="6" name="타원 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5142,7 +5638,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvPr id="7" name="타원 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5197,7 +5699,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvPr id="8" name="타원 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5252,7 +5760,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="타원 8"/>
+        <xdr:cNvPr id="9" name="타원 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5307,7 +5821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvPr id="10" name="타원 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5362,7 +5882,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="타원 10"/>
+        <xdr:cNvPr id="11" name="타원 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5417,7 +5943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="타원 11"/>
+        <xdr:cNvPr id="12" name="타원 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5472,7 +6004,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="타원 12"/>
+        <xdr:cNvPr id="13" name="타원 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5527,7 +6065,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="타원 13"/>
+        <xdr:cNvPr id="14" name="타원 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5582,7 +6126,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="타원 14"/>
+        <xdr:cNvPr id="15" name="타원 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5637,7 +6187,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="다이아몬드 15"/>
+        <xdr:cNvPr id="16" name="다이아몬드 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5692,7 +6248,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="타원 16"/>
+        <xdr:cNvPr id="17" name="타원 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5747,7 +6309,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="타원 17"/>
+        <xdr:cNvPr id="18" name="타원 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5802,7 +6370,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="타원 18"/>
+        <xdr:cNvPr id="19" name="타원 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5857,7 +6431,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="타원 19"/>
+        <xdr:cNvPr id="20" name="타원 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5912,7 +6492,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="타원 20"/>
+        <xdr:cNvPr id="21" name="타원 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5967,7 +6553,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6023,7 +6615,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="직사각형 23"/>
+        <xdr:cNvPr id="24" name="직사각형 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6079,7 +6677,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="직사각형 25"/>
+        <xdr:cNvPr id="26" name="직사각형 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6138,7 +6742,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="직사각형 26"/>
+        <xdr:cNvPr id="27" name="직사각형 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6210,7 +6820,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvPr id="28" name="직사각형 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6291,7 +6907,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvPr id="29" name="직사각형 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6347,7 +6969,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvPr id="30" name="직사각형 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6406,7 +7034,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="직사각형 30"/>
+        <xdr:cNvPr id="31" name="직사각형 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6470,7 +7104,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="직사각형 33"/>
+        <xdr:cNvPr id="34" name="직사각형 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6551,7 +7191,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="직사각형 34"/>
+        <xdr:cNvPr id="35" name="직사각형 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6607,7 +7253,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="직선 연결선 35"/>
+        <xdr:cNvPr id="36" name="직선 연결선 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="3"/>
           <a:endCxn id="28" idx="1"/>
@@ -6654,7 +7306,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="직선 연결선 37"/>
+        <xdr:cNvPr id="38" name="직선 연결선 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="3"/>
           <a:endCxn id="34" idx="1"/>
@@ -6701,7 +7359,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="직선 연결선 40"/>
+        <xdr:cNvPr id="41" name="직선 연결선 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="3"/>
           <a:endCxn id="31" idx="1"/>
@@ -6748,7 +7412,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="직선 연결선 43"/>
+        <xdr:cNvPr id="44" name="직선 연결선 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="3"/>
           <a:endCxn id="31" idx="1"/>
@@ -6800,7 +7470,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6856,7 +7532,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6912,7 +7594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="다이아몬드 3"/>
+        <xdr:cNvPr id="4" name="다이아몬드 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6967,7 +7655,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="다이아몬드 4"/>
+        <xdr:cNvPr id="5" name="다이아몬드 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7022,7 +7716,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="다이아몬드 5"/>
+        <xdr:cNvPr id="6" name="다이아몬드 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7077,7 +7777,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvPr id="7" name="타원 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7132,7 +7838,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvPr id="8" name="타원 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7187,7 +7899,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="타원 8"/>
+        <xdr:cNvPr id="9" name="타원 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7242,7 +7960,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvPr id="10" name="타원 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7297,7 +8021,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="타원 10"/>
+        <xdr:cNvPr id="11" name="타원 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7352,7 +8082,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="타원 11"/>
+        <xdr:cNvPr id="12" name="타원 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7407,7 +8143,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="타원 12"/>
+        <xdr:cNvPr id="13" name="타원 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7462,7 +8204,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="타원 13"/>
+        <xdr:cNvPr id="14" name="타원 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7517,7 +8265,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="타원 14"/>
+        <xdr:cNvPr id="15" name="타원 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7572,7 +8326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="타원 15"/>
+        <xdr:cNvPr id="16" name="타원 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7627,7 +8387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="타원 16"/>
+        <xdr:cNvPr id="17" name="타원 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7687,7 +8453,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="타원 17"/>
+        <xdr:cNvPr id="18" name="타원 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7742,7 +8514,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="타원 18"/>
+        <xdr:cNvPr id="19" name="타원 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7797,7 +8575,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="타원 19"/>
+        <xdr:cNvPr id="20" name="타원 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7852,7 +8636,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="타원 20"/>
+        <xdr:cNvPr id="21" name="타원 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7907,7 +8697,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="타원 21"/>
+        <xdr:cNvPr id="22" name="타원 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7962,7 +8758,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="타원 22"/>
+        <xdr:cNvPr id="23" name="타원 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8017,7 +8819,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="타원 23"/>
+        <xdr:cNvPr id="24" name="타원 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8072,7 +8880,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="타원 24"/>
+        <xdr:cNvPr id="25" name="타원 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8127,7 +8941,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="타원 25"/>
+        <xdr:cNvPr id="26" name="타원 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8187,7 +9007,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="타원 26"/>
+        <xdr:cNvPr id="27" name="타원 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8230,24 +9056,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="타원 27"/>
+        <xdr:cNvPr id="28" name="타원 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6276975" y="11125200"/>
+          <a:off x="6353175" y="10839450"/>
           <a:ext cx="1257300" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8290,25 +9122,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="타원 28"/>
+        <xdr:cNvPr id="29" name="타원 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7372350" y="11363325"/>
-          <a:ext cx="1485900" cy="466725"/>
+          <a:off x="7496175" y="10944225"/>
+          <a:ext cx="1647825" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8357,7 +9195,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="타원 29"/>
+        <xdr:cNvPr id="30" name="타원 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8412,7 +9256,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="타원 30"/>
+        <xdr:cNvPr id="31" name="타원 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8467,7 +9317,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="타원 31"/>
+        <xdr:cNvPr id="32" name="타원 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8522,7 +9378,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="타원 32"/>
+        <xdr:cNvPr id="33" name="타원 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8570,24 +9432,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="타원 33"/>
+        <xdr:cNvPr id="34" name="타원 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1181100" y="10734675"/>
+          <a:off x="1295400" y="10448925"/>
           <a:ext cx="1485900" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8637,7 +9505,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="타원 34"/>
+        <xdr:cNvPr id="35" name="타원 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8679,25 +9553,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="타원 35"/>
+        <xdr:cNvPr id="36" name="타원 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238375" y="11315700"/>
+          <a:off x="2219325" y="10925175"/>
           <a:ext cx="1076325" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8734,25 +9614,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="타원 36"/>
+        <xdr:cNvPr id="37" name="타원 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3228975" y="10944225"/>
+          <a:off x="3219450" y="10753725"/>
           <a:ext cx="1076325" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8802,7 +9688,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="타원 37"/>
+        <xdr:cNvPr id="38" name="타원 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8857,7 +9749,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="타원 38"/>
+        <xdr:cNvPr id="39" name="타원 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8912,7 +9810,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="직사각형 39"/>
+        <xdr:cNvPr id="40" name="직사각형 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8982,7 +9886,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="직사각형 40"/>
+        <xdr:cNvPr id="41" name="직사각형 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9034,7 +9944,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="직사각형 41"/>
+        <xdr:cNvPr id="42" name="직사각형 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9104,7 +10020,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="직사각형 42"/>
+        <xdr:cNvPr id="43" name="직사각형 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9176,7 +10098,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="직사각형 43"/>
+        <xdr:cNvPr id="44" name="직사각형 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9257,7 +10185,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="직사각형 44"/>
+        <xdr:cNvPr id="45" name="직사각형 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9333,7 +10267,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="직사각형 45"/>
+        <xdr:cNvPr id="46" name="직사각형 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9403,7 +10343,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="직사각형 46"/>
+        <xdr:cNvPr id="47" name="직사각형 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9483,7 +10429,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="직사각형 47"/>
+        <xdr:cNvPr id="48" name="직사각형 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9542,7 +10494,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="직사각형 48"/>
+        <xdr:cNvPr id="49" name="직사각형 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9642,7 +10600,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="직선 화살표 연결선 50"/>
+        <xdr:cNvPr id="51" name="직선 화살표 연결선 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -9693,7 +10657,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="직선 화살표 연결선 51"/>
+        <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
           <a:endCxn id="6" idx="0"/>
@@ -9744,7 +10714,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="직선 화살표 연결선 54"/>
+        <xdr:cNvPr id="55" name="직선 화살표 연결선 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="1"/>
           <a:endCxn id="5" idx="0"/>
@@ -9795,7 +10771,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="직선 화살표 연결선 57"/>
+        <xdr:cNvPr id="58" name="직선 화살표 연결선 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -9845,7 +10827,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="직선 화살표 연결선 61"/>
+        <xdr:cNvPr id="62" name="직선 화살표 연결선 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="1"/>
           <a:endCxn id="2" idx="3"/>
@@ -9896,7 +10884,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="직선 연결선 66"/>
+        <xdr:cNvPr id="67" name="직선 연결선 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="40" idx="3"/>
           <a:endCxn id="46" idx="1"/>
@@ -9943,7 +10937,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="직선 연결선 76"/>
+        <xdr:cNvPr id="77" name="직선 연결선 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="3"/>
           <a:endCxn id="42" idx="1"/>
@@ -9990,7 +10990,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="직선 연결선 79"/>
+        <xdr:cNvPr id="80" name="직선 연결선 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="42" idx="3"/>
           <a:endCxn id="48" idx="1"/>
@@ -10037,7 +11043,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="직선 연결선 82"/>
+        <xdr:cNvPr id="83" name="직선 연결선 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="3"/>
           <a:endCxn id="48" idx="1"/>
@@ -10084,7 +11096,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="직선 연결선 96"/>
+        <xdr:cNvPr id="97" name="직선 연결선 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="44" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -10130,7 +11148,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="직선 연결선 107"/>
+        <xdr:cNvPr id="108" name="직선 연결선 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10174,7 +11198,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="타원 109"/>
+        <xdr:cNvPr id="110" name="타원 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10226,7 +11256,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="직선 연결선 110"/>
+        <xdr:cNvPr id="111" name="직선 연결선 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10270,7 +11306,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="직선 연결선 113"/>
+        <xdr:cNvPr id="114" name="직선 연결선 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="110" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -10316,7 +11358,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="직선 연결선 114"/>
+        <xdr:cNvPr id="115" name="직선 연결선 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10360,7 +11408,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="직선 연결선 117"/>
+        <xdr:cNvPr id="118" name="직선 연결선 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10404,7 +11458,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="타원 119"/>
+        <xdr:cNvPr id="120" name="타원 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10456,7 +11516,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="직선 연결선 120"/>
+        <xdr:cNvPr id="121" name="직선 연결선 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10500,7 +11566,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="직선 연결선 121"/>
+        <xdr:cNvPr id="122" name="직선 연결선 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10544,7 +11616,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="직선 연결선 123"/>
+        <xdr:cNvPr id="124" name="직선 연결선 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10588,7 +11666,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="직선 연결선 125"/>
+        <xdr:cNvPr id="126" name="직선 연결선 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10632,7 +11716,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="직선 연결선 127"/>
+        <xdr:cNvPr id="128" name="직선 연결선 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10676,7 +11766,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="타원 129"/>
+        <xdr:cNvPr id="130" name="타원 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10728,7 +11824,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="직선 연결선 130"/>
+        <xdr:cNvPr id="131" name="직선 연결선 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10772,7 +11874,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="직선 연결선 135"/>
+        <xdr:cNvPr id="136" name="직선 연결선 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10816,7 +11924,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="타원 140"/>
+        <xdr:cNvPr id="141" name="타원 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10868,7 +11982,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="142" name="직선 연결선 141"/>
+        <xdr:cNvPr id="142" name="직선 연결선 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10912,7 +12032,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="144" name="직선 연결선 143"/>
+        <xdr:cNvPr id="144" name="직선 연결선 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10956,7 +12082,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="직선 연결선 147"/>
+        <xdr:cNvPr id="148" name="직선 연결선 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11000,7 +12132,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="151" name="직선 연결선 150"/>
+        <xdr:cNvPr id="151" name="직선 연결선 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11044,7 +12182,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="타원 155"/>
+        <xdr:cNvPr id="156" name="타원 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11096,7 +12240,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="157" name="직선 연결선 156"/>
+        <xdr:cNvPr id="157" name="직선 연결선 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11140,7 +12290,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="타원 158"/>
+        <xdr:cNvPr id="159" name="타원 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11192,7 +12348,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="160" name="직선 연결선 159"/>
+        <xdr:cNvPr id="160" name="직선 연결선 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11236,7 +12398,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="161" name="직선 연결선 160"/>
+        <xdr:cNvPr id="161" name="직선 연결선 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11280,7 +12448,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="164" name="직선 연결선 163"/>
+        <xdr:cNvPr id="164" name="직선 연결선 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11574,7 +12748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q143"/>
   <sheetViews>
     <sheetView topLeftCell="H110" zoomScaleNormal="100" workbookViewId="0">
@@ -11860,25 +13034,25 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6" t="s">
+      <c r="C78" s="18"/>
+      <c r="D78" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8" t="s">
+      <c r="E78" s="14"/>
+      <c r="F78" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10" t="s">
+      <c r="G78" s="20"/>
+      <c r="H78" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="6">
         <v>45013</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="J78" s="23" t="s">
         <v>141</v>
       </c>
       <c r="L78" t="s">
@@ -11895,30 +13069,30 @@
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="6" t="s">
+      <c r="C79" s="18"/>
+      <c r="D79" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="10" t="s">
+      <c r="E79" s="14"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J79" s="15"/>
+      <c r="J79" s="24"/>
       <c r="L79" t="s">
         <v>313</v>
       </c>
       <c r="M79" t="s">
         <v>316</v>
       </c>
-      <c r="N79" s="22">
+      <c r="N79" s="10">
         <v>100000</v>
       </c>
       <c r="O79">
@@ -11926,26 +13100,26 @@
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5" t="s">
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
       <c r="L80" t="s">
         <v>314</v>
       </c>
       <c r="M80" t="s">
         <v>317</v>
       </c>
-      <c r="N80" s="22">
+      <c r="N80" s="10">
         <v>10000</v>
       </c>
       <c r="O80">
@@ -11953,36 +13127,36 @@
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="10" t="s">
+      <c r="D81" s="16"/>
+      <c r="E81" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H81" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J81" s="7"/>
-      <c r="L81" s="23" t="s">
+      <c r="J81" s="14"/>
+      <c r="L81" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="M81" s="23" t="s">
+      <c r="M81" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="N81" s="22">
+      <c r="N81" s="10">
         <v>50000</v>
       </c>
       <c r="O81">
@@ -11990,198 +13164,198 @@
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B82" s="10">
+      <c r="B82" s="5">
         <v>1</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="10" t="s">
+      <c r="D82" s="16"/>
+      <c r="E82" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H82" s="10"/>
-      <c r="I82" s="6" t="s">
+      <c r="H82" s="5"/>
+      <c r="I82" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="J82" s="7"/>
+      <c r="J82" s="14"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B83" s="10">
+      <c r="B83" s="5">
         <v>2</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="10" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="6" t="s">
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="J83" s="7"/>
+      <c r="J83" s="14"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B84" s="10">
+      <c r="B84" s="5">
         <v>3</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="10" t="s">
+      <c r="D84" s="16"/>
+      <c r="E84" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="6" t="s">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J84" s="7"/>
+      <c r="J84" s="14"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B85" s="10">
+      <c r="B85" s="5">
         <v>4</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="10" t="s">
+      <c r="D85" s="16"/>
+      <c r="E85" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="6" t="s">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="J85" s="7"/>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B86" s="10">
+      <c r="B86" s="5">
         <v>5</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="7"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B87" s="10">
+      <c r="B87" s="5">
         <v>6</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="7"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="14"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B88" s="10">
+      <c r="B88" s="5">
         <v>7</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="7"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="14"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B89" s="10">
+      <c r="B89" s="5">
         <v>8</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="7"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="14"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B90" s="10">
+      <c r="B90" s="5">
         <v>9</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="14"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B91" s="10">
+      <c r="B91" s="5">
         <v>10</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="7"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="6" t="s">
+      <c r="C95" s="18"/>
+      <c r="D95" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8" t="s">
+      <c r="E95" s="14"/>
+      <c r="F95" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10" t="s">
+      <c r="G95" s="20"/>
+      <c r="H95" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I95" s="11">
+      <c r="I95" s="6">
         <v>45013</v>
       </c>
-      <c r="J95" s="12" t="s">
+      <c r="J95" s="23" t="s">
         <v>141</v>
       </c>
       <c r="L95" t="s">
@@ -12198,23 +13372,23 @@
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="6" t="s">
+      <c r="C96" s="18"/>
+      <c r="D96" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="10" t="s">
+      <c r="E96" s="14"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="I96" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J96" s="15"/>
+      <c r="J96" s="24"/>
       <c r="L96" t="s">
         <v>319</v>
       </c>
@@ -12229,19 +13403,19 @@
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5" t="s">
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
       <c r="L97" t="s">
         <v>320</v>
       </c>
@@ -12256,30 +13430,30 @@
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D98" s="17"/>
-      <c r="E98" s="10" t="s">
+      <c r="D98" s="16"/>
+      <c r="E98" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="F98" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G98" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J98" s="7"/>
-      <c r="L98" s="23" t="s">
+      <c r="J98" s="14"/>
+      <c r="L98" s="11" t="s">
         <v>321</v>
       </c>
       <c r="M98" t="s">
@@ -12293,202 +13467,202 @@
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B99" s="10">
+      <c r="B99" s="5">
         <v>1</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="10" t="s">
+      <c r="D99" s="16"/>
+      <c r="E99" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="G99" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H99" s="10"/>
-      <c r="I99" s="6" t="s">
+      <c r="H99" s="5"/>
+      <c r="I99" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="J99" s="7"/>
+      <c r="J99" s="14"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B100" s="10">
+      <c r="B100" s="5">
         <v>2</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="10" t="s">
+      <c r="D100" s="16"/>
+      <c r="E100" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="6" t="s">
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J100" s="7"/>
+      <c r="J100" s="14"/>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B101" s="10">
+      <c r="B101" s="5">
         <v>3</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="10" t="s">
+      <c r="D101" s="16"/>
+      <c r="E101" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="6" t="s">
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="J101" s="7"/>
+      <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B102" s="10">
+      <c r="B102" s="5">
         <v>4</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D102" s="17"/>
-      <c r="E102" s="10" t="s">
+      <c r="D102" s="16"/>
+      <c r="E102" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="6" t="s">
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="J102" s="7"/>
+      <c r="J102" s="14"/>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B103" s="10">
+      <c r="B103" s="5">
         <v>5</v>
       </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="7"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="14"/>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B104" s="10">
+      <c r="B104" s="5">
         <v>6</v>
       </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="7"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="14"/>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B105" s="10">
+      <c r="B105" s="5">
         <v>7</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="7"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="14"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B106" s="10">
+      <c r="B106" s="5">
         <v>8</v>
       </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="7"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="14"/>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B107" s="10">
+      <c r="B107" s="5">
         <v>9</v>
       </c>
-      <c r="C107" s="18"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="14"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B108" s="10">
+      <c r="B108" s="5">
         <v>10</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="7"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="14"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="6" t="s">
+      <c r="C112" s="18"/>
+      <c r="D112" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="8" t="s">
+      <c r="E112" s="14"/>
+      <c r="F112" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="10" t="s">
+      <c r="G112" s="20"/>
+      <c r="H112" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I112" s="11">
+      <c r="I112" s="6">
         <v>45013</v>
       </c>
-      <c r="J112" s="12" t="s">
+      <c r="J112" s="23" t="s">
         <v>141</v>
       </c>
       <c r="L112" t="s">
@@ -12508,23 +13682,23 @@
       </c>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="6" t="s">
+      <c r="C113" s="18"/>
+      <c r="D113" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="10" t="s">
+      <c r="E113" s="14"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I113" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J113" s="15"/>
+      <c r="J113" s="24"/>
       <c r="L113" t="s">
         <v>328</v>
       </c>
@@ -12534,7 +13708,7 @@
       <c r="N113" t="s">
         <v>333</v>
       </c>
-      <c r="O113" s="24">
+      <c r="O113" s="12">
         <v>45013</v>
       </c>
       <c r="P113">
@@ -12542,19 +13716,19 @@
       </c>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5" t="s">
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
       <c r="L114" t="s">
         <v>329</v>
       </c>
@@ -12564,7 +13738,7 @@
       <c r="N114" t="s">
         <v>321</v>
       </c>
-      <c r="O114" s="24">
+      <c r="O114" s="12">
         <v>45014</v>
       </c>
       <c r="P114">
@@ -12572,30 +13746,30 @@
       </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D115" s="17"/>
-      <c r="E115" s="10" t="s">
+      <c r="D115" s="16"/>
+      <c r="E115" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F115" s="10" t="s">
+      <c r="F115" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G115" s="10" t="s">
+      <c r="G115" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H115" s="10" t="s">
+      <c r="H115" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I115" s="6" t="s">
+      <c r="I115" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J115" s="7"/>
-      <c r="L115" s="23" t="s">
+      <c r="J115" s="14"/>
+      <c r="L115" s="11" t="s">
         <v>330</v>
       </c>
       <c r="M115" t="s">
@@ -12604,7 +13778,7 @@
       <c r="N115" t="s">
         <v>334</v>
       </c>
-      <c r="O115" s="24">
+      <c r="O115" s="12">
         <v>45014</v>
       </c>
       <c r="P115">
@@ -12612,212 +13786,212 @@
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B116" s="10">
+      <c r="B116" s="5">
         <v>1</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D116" s="17"/>
-      <c r="E116" s="10" t="s">
+      <c r="D116" s="16"/>
+      <c r="E116" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F116" s="10" t="s">
+      <c r="F116" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="G116" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H116" s="10"/>
-      <c r="I116" s="6" t="s">
+      <c r="H116" s="5"/>
+      <c r="I116" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="J116" s="7"/>
+      <c r="J116" s="14"/>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B117" s="10">
+      <c r="B117" s="5">
         <v>2</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D117" s="17"/>
-      <c r="E117" s="10" t="s">
+      <c r="D117" s="16"/>
+      <c r="E117" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F117" s="10" t="s">
+      <c r="F117" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G117" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H117" s="10"/>
-      <c r="I117" s="6" t="s">
+      <c r="H117" s="5"/>
+      <c r="I117" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="J117" s="7"/>
+      <c r="J117" s="14"/>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B118" s="10">
+      <c r="B118" s="5">
         <v>3</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="10" t="s">
+      <c r="D118" s="16"/>
+      <c r="E118" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F118" s="10" t="s">
+      <c r="F118" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G118" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H118" s="10"/>
-      <c r="I118" s="6" t="s">
+      <c r="H118" s="5"/>
+      <c r="I118" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="J118" s="7"/>
+      <c r="J118" s="14"/>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B119" s="10">
+      <c r="B119" s="5">
         <v>4</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D119" s="17"/>
-      <c r="E119" s="10" t="s">
+      <c r="D119" s="16"/>
+      <c r="E119" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F119" s="10" t="s">
+      <c r="F119" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="6" t="s">
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="J119" s="7"/>
+      <c r="J119" s="14"/>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B120" s="10">
+      <c r="B120" s="5">
         <v>5</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="10" t="s">
+      <c r="D120" s="16"/>
+      <c r="E120" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="6" t="s">
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="J120" s="7"/>
+      <c r="J120" s="14"/>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B121" s="10">
+      <c r="B121" s="5">
         <v>6</v>
       </c>
-      <c r="C121" s="16"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="7"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="14"/>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B122" s="10">
+      <c r="B122" s="5">
         <v>7</v>
       </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="7"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="14"/>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B123" s="10">
+      <c r="B123" s="5">
         <v>8</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="7"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="14"/>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B124" s="10">
+      <c r="B124" s="5">
         <v>9</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="14"/>
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B125" s="10">
+      <c r="B125" s="5">
         <v>10</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="7"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="14"/>
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="20"/>
-      <c r="J126" s="20"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="6" t="s">
+      <c r="C129" s="18"/>
+      <c r="D129" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="8" t="s">
+      <c r="E129" s="14"/>
+      <c r="F129" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="10" t="s">
+      <c r="G129" s="20"/>
+      <c r="H129" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I129" s="11">
+      <c r="I129" s="6">
         <v>45013</v>
       </c>
-      <c r="J129" s="12" t="s">
+      <c r="J129" s="23" t="s">
         <v>141</v>
       </c>
       <c r="L129" t="s">
@@ -12834,30 +14008,30 @@
       </c>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="6" t="s">
+      <c r="C130" s="18"/>
+      <c r="D130" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="10" t="s">
+      <c r="E130" s="14"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I130" s="10" t="s">
+      <c r="I130" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J130" s="15"/>
+      <c r="J130" s="24"/>
       <c r="L130" t="s">
         <v>339</v>
       </c>
       <c r="M130" t="s">
         <v>341</v>
       </c>
-      <c r="N130" s="24">
+      <c r="N130" s="12">
         <v>45023</v>
       </c>
       <c r="O130">
@@ -12865,26 +14039,26 @@
       </c>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5" t="s">
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
       <c r="L131" t="s">
         <v>340</v>
       </c>
       <c r="M131" t="s">
         <v>342</v>
       </c>
-      <c r="N131" s="24">
+      <c r="N131" s="12">
         <v>45026</v>
       </c>
       <c r="O131">
@@ -12892,289 +14066,235 @@
       </c>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="C132" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D132" s="17"/>
-      <c r="E132" s="10" t="s">
+      <c r="D132" s="16"/>
+      <c r="E132" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F132" s="10" t="s">
+      <c r="F132" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G132" s="10" t="s">
+      <c r="G132" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H132" s="10" t="s">
+      <c r="H132" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I132" s="6" t="s">
+      <c r="I132" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J132" s="7"/>
+      <c r="J132" s="14"/>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B133" s="10">
+      <c r="B133" s="5">
         <v>1</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C133" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D133" s="17"/>
-      <c r="E133" s="10" t="s">
+      <c r="D133" s="16"/>
+      <c r="E133" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F133" s="10" t="s">
+      <c r="F133" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G133" s="10" t="s">
+      <c r="G133" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H133" s="10"/>
-      <c r="I133" s="6" t="s">
+      <c r="H133" s="5"/>
+      <c r="I133" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J133" s="7"/>
+      <c r="J133" s="14"/>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B134" s="10">
+      <c r="B134" s="5">
         <v>2</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D134" s="17"/>
-      <c r="E134" s="10" t="s">
+      <c r="D134" s="16"/>
+      <c r="E134" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F134" s="10" t="s">
+      <c r="F134" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G134" s="10" t="s">
+      <c r="G134" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H134" s="10"/>
-      <c r="I134" s="6" t="s">
+      <c r="H134" s="5"/>
+      <c r="I134" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="J134" s="7"/>
+      <c r="J134" s="14"/>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B135" s="10">
+      <c r="B135" s="5">
         <v>3</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D135" s="7"/>
-      <c r="E135" s="10" t="s">
+      <c r="D135" s="14"/>
+      <c r="E135" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F135" s="10" t="s">
+      <c r="F135" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="6" t="s">
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J135" s="7"/>
+      <c r="J135" s="14"/>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B136" s="10">
+      <c r="B136" s="5">
         <v>4</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D136" s="17"/>
-      <c r="E136" s="10" t="s">
+      <c r="D136" s="16"/>
+      <c r="E136" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="6" t="s">
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="J136" s="7"/>
+      <c r="J136" s="14"/>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B137" s="10">
+      <c r="B137" s="5">
         <v>5</v>
       </c>
-      <c r="C137" s="16"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="7"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="14"/>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B138" s="10">
+      <c r="B138" s="5">
         <v>6</v>
       </c>
-      <c r="C138" s="16"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="7"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="14"/>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B139" s="10">
+      <c r="B139" s="5">
         <v>7</v>
       </c>
-      <c r="C139" s="16"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="7"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="14"/>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B140" s="10">
+      <c r="B140" s="5">
         <v>8</v>
       </c>
-      <c r="C140" s="16"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="7"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="14"/>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B141" s="10">
+      <c r="B141" s="5">
         <v>9</v>
       </c>
-      <c r="C141" s="18"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="14"/>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B142" s="10">
+      <c r="B142" s="5">
         <v>10</v>
       </c>
-      <c r="C142" s="16"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="7"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="14"/>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="I142:J142"/>
-    <mergeCell ref="B143:J143"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="E131:J131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="F129:G130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="B126:J126"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G113"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="B109:J109"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:J80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
     <mergeCell ref="B97:D97"/>
     <mergeCell ref="E97:J97"/>
     <mergeCell ref="C98:D98"/>
@@ -13192,31 +14312,85 @@
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="B92:J92"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:J80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G113"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="B109:J109"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="B126:J126"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="E131:J131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="F129:G130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="B143:J143"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="I142:J142"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13226,7 +14400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
@@ -13415,1015 +14589,1123 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6" t="s">
+      <c r="C64" s="18"/>
+      <c r="D64" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8" t="s">
+      <c r="E64" s="14"/>
+      <c r="F64" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10" t="s">
+      <c r="G64" s="20"/>
+      <c r="H64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="6">
         <v>45013</v>
       </c>
-      <c r="J64" s="12" t="s">
+      <c r="J64" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6" t="s">
+      <c r="C65" s="18"/>
+      <c r="D65" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="10" t="s">
+      <c r="E65" s="14"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J65" s="15"/>
+      <c r="J65" s="24"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5" t="s">
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="16"/>
+      <c r="E67" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J67" s="7"/>
+      <c r="J67" s="14"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="10">
+      <c r="B68" s="5">
         <v>1</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="10" t="s">
+      <c r="D68" s="16"/>
+      <c r="E68" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="6" t="s">
+      <c r="H68" s="5"/>
+      <c r="I68" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="J68" s="7"/>
+      <c r="J68" s="14"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="10">
+      <c r="B69" s="5">
         <v>2</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="10" t="s">
+      <c r="D69" s="16"/>
+      <c r="E69" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="6" t="s">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J69" s="7"/>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="10">
+      <c r="B70" s="5">
         <v>3</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="10" t="s">
+      <c r="D70" s="16"/>
+      <c r="E70" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="6" t="s">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="J70" s="7"/>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="10">
+      <c r="B71" s="5">
         <v>4</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="16"/>
+      <c r="E71" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="6" t="s">
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="J71" s="7"/>
+      <c r="J71" s="14"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="10">
+      <c r="B72" s="5">
         <v>5</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="7"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="14"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="10">
+      <c r="B73" s="5">
         <v>6</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="7"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="10">
+      <c r="B74" s="5">
         <v>7</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="7"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="10">
+      <c r="B75" s="5">
         <v>8</v>
       </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="7"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="14"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="10">
+      <c r="B76" s="5">
         <v>9</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="10">
+      <c r="B77" s="5">
         <v>10</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="7"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="6" t="s">
+      <c r="C81" s="18"/>
+      <c r="D81" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8" t="s">
+      <c r="E81" s="14"/>
+      <c r="F81" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="10" t="s">
+      <c r="G81" s="20"/>
+      <c r="H81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="6">
         <v>45013</v>
       </c>
-      <c r="J81" s="12" t="s">
+      <c r="J81" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="6" t="s">
+      <c r="C82" s="18"/>
+      <c r="D82" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="10" t="s">
+      <c r="E82" s="14"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="I82" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J82" s="15"/>
+      <c r="J82" s="24"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5" t="s">
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="10" t="s">
+      <c r="D84" s="16"/>
+      <c r="E84" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H84" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I84" s="6" t="s">
+      <c r="I84" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J84" s="7"/>
+      <c r="J84" s="14"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="10">
+      <c r="B85" s="5">
         <v>1</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="10" t="s">
+      <c r="D85" s="16"/>
+      <c r="E85" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H85" s="10"/>
-      <c r="I85" s="6" t="s">
+      <c r="H85" s="5"/>
+      <c r="I85" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="J85" s="7"/>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="10">
+      <c r="B86" s="5">
         <v>2</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="10" t="s">
+      <c r="D86" s="16"/>
+      <c r="E86" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H86" s="10"/>
-      <c r="I86" s="6" t="s">
+      <c r="H86" s="5"/>
+      <c r="I86" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="J86" s="7"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="10">
+      <c r="B87" s="5">
         <v>3</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="10" t="s">
+      <c r="D87" s="16"/>
+      <c r="E87" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="6" t="s">
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="J87" s="7"/>
+      <c r="J87" s="14"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="10">
+      <c r="B88" s="5">
         <v>4</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="7"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="14"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="10">
+      <c r="B89" s="5">
         <v>5</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="7"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="14"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="10">
+      <c r="B90" s="5">
         <v>6</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="7"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="14"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="10">
+      <c r="B91" s="5">
         <v>7</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="7"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="10">
+      <c r="B92" s="5">
         <v>8</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="7"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="14"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="10">
+      <c r="B93" s="5">
         <v>9</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="14"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="10">
+      <c r="B94" s="5">
         <v>10</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="7"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="14"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="6" t="s">
+      <c r="C98" s="18"/>
+      <c r="D98" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8" t="s">
+      <c r="E98" s="14"/>
+      <c r="F98" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="10" t="s">
+      <c r="G98" s="20"/>
+      <c r="H98" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I98" s="11">
+      <c r="I98" s="6">
         <v>45013</v>
       </c>
-      <c r="J98" s="12" t="s">
+      <c r="J98" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="6" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="10" t="s">
+      <c r="E99" s="14"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J99" s="15"/>
+      <c r="J99" s="24"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5" t="s">
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="10" t="s">
+      <c r="D101" s="16"/>
+      <c r="E101" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="H101" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="I101" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J101" s="7"/>
+      <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B102" s="10">
+      <c r="B102" s="5">
         <v>1</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D102" s="17"/>
-      <c r="E102" s="10" t="s">
+      <c r="D102" s="16"/>
+      <c r="E102" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H102" s="10"/>
-      <c r="I102" s="6" t="s">
+      <c r="H102" s="5"/>
+      <c r="I102" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J102" s="7"/>
+      <c r="J102" s="14"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B103" s="10">
+      <c r="B103" s="5">
         <v>2</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D103" s="17"/>
-      <c r="E103" s="10" t="s">
+      <c r="D103" s="16"/>
+      <c r="E103" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H103" s="10"/>
-      <c r="I103" s="6" t="s">
+      <c r="H103" s="5"/>
+      <c r="I103" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="J103" s="7"/>
+      <c r="J103" s="14"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="10">
+      <c r="B104" s="5">
         <v>3</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="D104" s="17"/>
-      <c r="E104" s="10" t="s">
+      <c r="D104" s="16"/>
+      <c r="E104" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="6" t="s">
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J104" s="7"/>
+      <c r="J104" s="14"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="10">
+      <c r="B105" s="5">
         <v>4</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="7"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="14"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B106" s="10">
+      <c r="B106" s="5">
         <v>5</v>
       </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="7"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="14"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B107" s="10">
+      <c r="B107" s="5">
         <v>6</v>
       </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="7"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="14"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B108" s="10">
+      <c r="B108" s="5">
         <v>7</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="7"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="14"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B109" s="10">
+      <c r="B109" s="5">
         <v>8</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="7"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="14"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B110" s="10">
+      <c r="B110" s="5">
         <v>9</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="14"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B111" s="10">
+      <c r="B111" s="5">
         <v>10</v>
       </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="7"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="14"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="6" t="s">
+      <c r="C115" s="18"/>
+      <c r="D115" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="8" t="s">
+      <c r="E115" s="14"/>
+      <c r="F115" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G115" s="9"/>
-      <c r="H115" s="10" t="s">
+      <c r="G115" s="20"/>
+      <c r="H115" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I115" s="11">
+      <c r="I115" s="6">
         <v>45013</v>
       </c>
-      <c r="J115" s="12" t="s">
+      <c r="J115" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="6" t="s">
+      <c r="C116" s="18"/>
+      <c r="D116" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="10" t="s">
+      <c r="E116" s="14"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I116" s="10" t="s">
+      <c r="I116" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J116" s="15"/>
+      <c r="J116" s="24"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5" t="s">
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="10" t="s">
+      <c r="D118" s="16"/>
+      <c r="E118" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F118" s="10" t="s">
+      <c r="F118" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G118" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H118" s="10" t="s">
+      <c r="H118" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I118" s="6" t="s">
+      <c r="I118" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J118" s="7"/>
+      <c r="J118" s="14"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B119" s="10">
+      <c r="B119" s="5">
         <v>1</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D119" s="17"/>
-      <c r="E119" s="10" t="s">
+      <c r="D119" s="16"/>
+      <c r="E119" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F119" s="10" t="s">
+      <c r="F119" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="G119" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H119" s="10"/>
-      <c r="I119" s="6" t="s">
+      <c r="H119" s="5"/>
+      <c r="I119" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="J119" s="7"/>
+      <c r="J119" s="14"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120" s="10">
+      <c r="B120" s="5">
         <v>2</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="10" t="s">
+      <c r="D120" s="16"/>
+      <c r="E120" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F120" s="10" t="s">
+      <c r="F120" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="6" t="s">
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J120" s="7"/>
+      <c r="J120" s="14"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="10">
+      <c r="B121" s="5">
         <v>3</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D121" s="17"/>
-      <c r="E121" s="10" t="s">
+      <c r="D121" s="16"/>
+      <c r="E121" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="6" t="s">
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="J121" s="7"/>
+      <c r="J121" s="14"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="10">
+      <c r="B122" s="5">
         <v>4</v>
       </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="7"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="14"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B123" s="10">
+      <c r="B123" s="5">
         <v>5</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="7"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="14"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B124" s="10">
+      <c r="B124" s="5">
         <v>6</v>
       </c>
-      <c r="C124" s="16"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="7"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="14"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125" s="10">
+      <c r="B125" s="5">
         <v>7</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="7"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="14"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="10">
+      <c r="B126" s="5">
         <v>8</v>
       </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="7"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="14"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B127" s="10">
+      <c r="B127" s="5">
         <v>9</v>
       </c>
-      <c r="C127" s="18"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="14"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B128" s="10">
+      <c r="B128" s="5">
         <v>10</v>
       </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="7"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="14"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="20"/>
-      <c r="J129" s="20"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B78:J78"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="B95:J95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="B112:J112"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="E117:J117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="I119:J119"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="I126:J126"/>
     <mergeCell ref="I127:J127"/>
@@ -14436,114 +15718,6 @@
     <mergeCell ref="I124:J124"/>
     <mergeCell ref="C125:D125"/>
     <mergeCell ref="I125:J125"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="B112:J112"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="B95:J95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14552,11 +15726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14796,1528 +15970,1666 @@
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="6" t="s">
+      <c r="C82" s="18"/>
+      <c r="D82" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8" t="s">
+      <c r="E82" s="14"/>
+      <c r="F82" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="10" t="s">
+      <c r="G82" s="20"/>
+      <c r="H82" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="6">
         <v>45013</v>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="6" t="s">
+      <c r="C83" s="18"/>
+      <c r="D83" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="10" t="s">
+      <c r="E83" s="14"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J83" s="15"/>
-      <c r="L83" t="s">
+      <c r="J83" s="24"/>
+      <c r="L83" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5" t="s">
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="L84" t="s">
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="L84" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="10" t="s">
+      <c r="D85" s="16"/>
+      <c r="E85" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H85" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I85" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J85" s="7"/>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="10">
+      <c r="B86" s="5">
         <v>1</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="10" t="s">
+      <c r="D86" s="16"/>
+      <c r="E86" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H86" s="10"/>
-      <c r="I86" s="6" t="s">
+      <c r="H86" s="5"/>
+      <c r="I86" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="J86" s="7"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="10">
+      <c r="B87" s="5">
         <v>2</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="10" t="s">
+      <c r="D87" s="16"/>
+      <c r="E87" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H87" s="10"/>
-      <c r="I87" s="6" t="s">
+      <c r="H87" s="5"/>
+      <c r="I87" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J87" s="7"/>
+      <c r="J87" s="14"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="10">
+      <c r="B88" s="5">
         <v>3</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="7"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="14"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="10">
+      <c r="B89" s="5">
         <v>4</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="7"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="14"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B90" s="10">
+      <c r="B90" s="5">
         <v>5</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="7"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="14"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B91" s="10">
+      <c r="B91" s="5">
         <v>6</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="7"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="10">
+      <c r="B92" s="5">
         <v>7</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="7"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="14"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="10">
+      <c r="B93" s="5">
         <v>8</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="7"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="14"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="10">
+      <c r="B94" s="5">
         <v>9</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="14"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B95" s="10">
+      <c r="B95" s="5">
         <v>10</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="7"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="14"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="6" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8" t="s">
+      <c r="E99" s="14"/>
+      <c r="F99" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="10" t="s">
+      <c r="G99" s="20"/>
+      <c r="H99" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I99" s="11">
+      <c r="I99" s="6">
         <v>45013</v>
       </c>
-      <c r="J99" s="12" t="s">
+      <c r="J99" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="N99" t="s">
+      <c r="N99" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="O99" t="s">
+      <c r="O99" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="P99" t="s">
+      <c r="P99" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="Q99" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="6" t="s">
+      <c r="C100" s="18"/>
+      <c r="D100" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="10" t="s">
+      <c r="E100" s="14"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J100" s="15"/>
-      <c r="L100" t="s">
+      <c r="J100" s="24"/>
+      <c r="L100" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="2">
         <v>91041160586</v>
       </c>
-      <c r="N100" s="24">
+      <c r="N100" s="25">
         <v>44965</v>
       </c>
-      <c r="O100" t="s">
+      <c r="O100" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="P100" t="s">
+      <c r="P100" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="Q100">
+      <c r="Q100" s="2">
         <v>50000</v>
       </c>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5" t="s">
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="L101" t="s">
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="L101" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="2">
         <v>91041160586</v>
       </c>
-      <c r="N101" s="24">
+      <c r="N101" s="25">
         <v>44969</v>
       </c>
-      <c r="O101" t="s">
+      <c r="O101" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="P101" t="s">
+      <c r="P101" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="Q101">
+      <c r="Q101" s="2">
         <v>-20000</v>
       </c>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D102" s="17"/>
-      <c r="E102" s="10" t="s">
+      <c r="D102" s="16"/>
+      <c r="E102" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="H102" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="I102" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J102" s="7"/>
+      <c r="J102" s="14"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B103" s="10">
+      <c r="B103" s="5">
         <v>1</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D103" s="17"/>
-      <c r="E103" s="10" t="s">
+      <c r="D103" s="16"/>
+      <c r="E103" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H103" s="10"/>
-      <c r="I103" s="6" t="s">
+      <c r="H103" s="5"/>
+      <c r="I103" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="J103" s="7"/>
+      <c r="J103" s="14"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B104" s="10">
+      <c r="B104" s="5">
         <v>2</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D104" s="17"/>
-      <c r="E104" s="10" t="s">
+      <c r="D104" s="16"/>
+      <c r="E104" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F104" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="G104" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H104" s="10"/>
-      <c r="I104" s="6" t="s">
+      <c r="H104" s="5"/>
+      <c r="I104" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="J104" s="7"/>
+      <c r="J104" s="14"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B105" s="10">
+      <c r="B105" s="5">
         <v>3</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D105" s="17"/>
-      <c r="E105" s="10" t="s">
+      <c r="D105" s="16"/>
+      <c r="E105" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="6" t="s">
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="J105" s="7"/>
+      <c r="J105" s="14"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B106" s="10">
+      <c r="B106" s="5">
         <v>4</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D106" s="17"/>
-      <c r="E106" s="10" t="s">
+      <c r="D106" s="16"/>
+      <c r="E106" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="6" t="s">
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="J106" s="7"/>
+      <c r="J106" s="14"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B107" s="10">
+      <c r="B107" s="5">
         <v>5</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="D107" s="17"/>
-      <c r="E107" s="10" t="s">
+      <c r="D107" s="16"/>
+      <c r="E107" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="6" t="s">
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="J107" s="7"/>
+      <c r="J107" s="14"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B108" s="10">
+      <c r="B108" s="5">
         <v>6</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D108" s="17"/>
-      <c r="E108" s="10" t="s">
+      <c r="D108" s="16"/>
+      <c r="E108" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="6" t="s">
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="J108" s="7"/>
+      <c r="J108" s="14"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B109" s="10">
+      <c r="B109" s="5">
         <v>7</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="7"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="14"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B110" s="10">
+      <c r="B110" s="5">
         <v>8</v>
       </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="7"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="14"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B111" s="10">
+      <c r="B111" s="5">
         <v>9</v>
       </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="14"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B112" s="10">
+      <c r="B112" s="5">
         <v>10</v>
       </c>
-      <c r="C112" s="16"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="7"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="14"/>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="6" t="s">
+      <c r="C116" s="18"/>
+      <c r="D116" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="8" t="s">
+      <c r="E116" s="14"/>
+      <c r="F116" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G116" s="9"/>
-      <c r="H116" s="10" t="s">
+      <c r="G116" s="20"/>
+      <c r="H116" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I116" s="11">
+      <c r="I116" s="6">
         <v>45013</v>
       </c>
-      <c r="J116" s="12" t="s">
+      <c r="J116" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="N116" t="s">
+      <c r="N116" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="O116" t="s">
+      <c r="O116" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="P116" t="s">
+      <c r="P116" s="2" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="6" t="s">
+      <c r="C117" s="18"/>
+      <c r="D117" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="10" t="s">
+      <c r="E117" s="14"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I117" s="10" t="s">
+      <c r="I117" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J117" s="15"/>
-      <c r="L117">
+      <c r="J117" s="24"/>
+      <c r="L117" s="2">
         <v>91041160586</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="N117">
+      <c r="N117" s="2">
         <v>500000000</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="2">
         <v>1</v>
       </c>
-      <c r="P117" s="24">
+      <c r="P117" s="25">
         <v>44925</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5" t="s">
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D119" s="17"/>
-      <c r="E119" s="10" t="s">
+      <c r="D119" s="16"/>
+      <c r="E119" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F119" s="10" t="s">
+      <c r="F119" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="G119" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="H119" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I119" s="6" t="s">
+      <c r="I119" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J119" s="7"/>
+      <c r="J119" s="14"/>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B120" s="10">
+      <c r="B120" s="5">
         <v>1</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="10" t="s">
+      <c r="D120" s="16"/>
+      <c r="E120" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F120" s="10" t="s">
+      <c r="F120" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G120" s="10" t="s">
+      <c r="G120" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H120" s="10"/>
-      <c r="I120" s="6" t="s">
+      <c r="H120" s="5"/>
+      <c r="I120" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J120" s="7"/>
+      <c r="J120" s="14"/>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B121" s="10">
+      <c r="B121" s="5">
         <v>2</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D121" s="17"/>
-      <c r="E121" s="10" t="s">
+      <c r="D121" s="16"/>
+      <c r="E121" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F121" s="10" t="s">
+      <c r="F121" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G121" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H121" s="10"/>
-      <c r="I121" s="6" t="s">
+      <c r="H121" s="5"/>
+      <c r="I121" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J121" s="7"/>
+      <c r="J121" s="14"/>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B122" s="10">
+      <c r="B122" s="5">
         <v>3</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D122" s="17"/>
-      <c r="E122" s="10" t="s">
+      <c r="D122" s="16"/>
+      <c r="E122" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="6" t="s">
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J122" s="7"/>
+      <c r="J122" s="14"/>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B123" s="10">
+      <c r="B123" s="5">
         <v>4</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="D123" s="17"/>
-      <c r="E123" s="10" t="s">
+      <c r="D123" s="16"/>
+      <c r="E123" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="6" t="s">
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="J123" s="7"/>
+      <c r="J123" s="14"/>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B124" s="10">
+      <c r="B124" s="5">
         <v>5</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D124" s="17"/>
-      <c r="E124" s="10" t="s">
+      <c r="D124" s="16"/>
+      <c r="E124" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="6" t="s">
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="J124" s="7"/>
+      <c r="J124" s="14"/>
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B125" s="10">
+      <c r="B125" s="5">
         <v>6</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="7"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="14"/>
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B126" s="10">
+      <c r="B126" s="5">
         <v>7</v>
       </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="7"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="14"/>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B127" s="10">
+      <c r="B127" s="5">
         <v>8</v>
       </c>
-      <c r="C127" s="16"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="7"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="14"/>
     </row>
     <row r="128" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B128" s="10">
+      <c r="B128" s="5">
         <v>9</v>
       </c>
-      <c r="C128" s="18"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="14"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B129" s="10">
+      <c r="B129" s="5">
         <v>10</v>
       </c>
-      <c r="C129" s="16"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="7"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="14"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
-      <c r="J130" s="20"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="6" t="s">
+      <c r="C133" s="18"/>
+      <c r="D133" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="E133" s="7"/>
-      <c r="F133" s="8" t="s">
+      <c r="E133" s="14"/>
+      <c r="F133" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G133" s="9"/>
-      <c r="H133" s="10" t="s">
+      <c r="G133" s="20"/>
+      <c r="H133" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I133" s="11">
+      <c r="I133" s="6">
         <v>45013</v>
       </c>
-      <c r="J133" s="12" t="s">
+      <c r="J133" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L133" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="N133" t="s">
+      <c r="N133" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O133" t="s">
+      <c r="O133" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P133" t="s">
+      <c r="P133" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="Q133" t="s">
+      <c r="Q133" s="2" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="6" t="s">
+      <c r="C134" s="18"/>
+      <c r="D134" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="10" t="s">
+      <c r="E134" s="14"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I134" s="10" t="s">
+      <c r="I134" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J134" s="15"/>
-      <c r="L134" t="s">
+      <c r="J134" s="24"/>
+      <c r="L134" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="N134">
+      <c r="N134" s="2">
         <v>91041160586</v>
       </c>
-      <c r="O134" s="24">
+      <c r="O134" s="25">
         <v>44929</v>
       </c>
-      <c r="P134" t="s">
+      <c r="P134" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="Q134" s="2" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5" t="s">
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D136" s="17"/>
-      <c r="E136" s="10" t="s">
+      <c r="D136" s="16"/>
+      <c r="E136" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G136" s="10" t="s">
+      <c r="G136" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H136" s="10" t="s">
+      <c r="H136" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I136" s="6" t="s">
+      <c r="I136" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J136" s="7"/>
+      <c r="J136" s="14"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B137" s="10">
+      <c r="B137" s="5">
         <v>1</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="C137" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D137" s="17"/>
-      <c r="E137" s="10" t="s">
+      <c r="D137" s="16"/>
+      <c r="E137" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F137" s="10" t="s">
+      <c r="F137" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G137" s="10" t="s">
+      <c r="G137" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H137" s="10"/>
-      <c r="I137" s="6" t="s">
+      <c r="H137" s="5"/>
+      <c r="I137" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="J137" s="7"/>
+      <c r="J137" s="14"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B138" s="10">
+      <c r="B138" s="5">
         <v>2</v>
       </c>
-      <c r="C138" s="16" t="s">
+      <c r="C138" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D138" s="17"/>
-      <c r="E138" s="10" t="s">
+      <c r="D138" s="16"/>
+      <c r="E138" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F138" s="10" t="s">
+      <c r="F138" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G138" s="10" t="s">
+      <c r="G138" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H138" s="10"/>
-      <c r="I138" s="6" t="s">
+      <c r="H138" s="5"/>
+      <c r="I138" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J138" s="7"/>
+      <c r="J138" s="14"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B139" s="10">
+      <c r="B139" s="5">
         <v>3</v>
       </c>
-      <c r="C139" s="16" t="s">
+      <c r="C139" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D139" s="17"/>
-      <c r="E139" s="10" t="s">
+      <c r="D139" s="16"/>
+      <c r="E139" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F139" s="10" t="s">
+      <c r="F139" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G139" s="10" t="s">
+      <c r="G139" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H139" s="10"/>
-      <c r="I139" s="6" t="s">
+      <c r="H139" s="5"/>
+      <c r="I139" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J139" s="7"/>
+      <c r="J139" s="14"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B140" s="10">
+      <c r="B140" s="5">
         <v>4</v>
       </c>
-      <c r="C140" s="16" t="s">
+      <c r="C140" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D140" s="17"/>
-      <c r="E140" s="10" t="s">
+      <c r="D140" s="16"/>
+      <c r="E140" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="F140" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="6" t="s">
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="J140" s="7"/>
+      <c r="J140" s="14"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B141" s="10">
+      <c r="B141" s="5">
         <v>5</v>
       </c>
-      <c r="C141" s="16" t="s">
+      <c r="C141" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D141" s="17"/>
-      <c r="E141" s="10" t="s">
+      <c r="D141" s="16"/>
+      <c r="E141" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="6" t="s">
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="J141" s="7"/>
+      <c r="J141" s="14"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B142" s="10">
+      <c r="B142" s="5">
         <v>6</v>
       </c>
-      <c r="C142" s="16" t="s">
+      <c r="C142" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D142" s="17"/>
-      <c r="E142" s="10" t="s">
+      <c r="D142" s="16"/>
+      <c r="E142" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="6" t="s">
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="J142" s="7"/>
+      <c r="J142" s="14"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B143" s="10">
+      <c r="B143" s="5">
         <v>7</v>
       </c>
-      <c r="C143" s="16"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="7"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="14"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B144" s="10">
+      <c r="B144" s="5">
         <v>8</v>
       </c>
-      <c r="C144" s="16"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="7"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="14"/>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B145" s="10">
+      <c r="B145" s="5">
         <v>9</v>
       </c>
-      <c r="C145" s="18"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="14"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B146" s="10">
+      <c r="B146" s="5">
         <v>10</v>
       </c>
-      <c r="C146" s="16"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="7"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="14"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
-      <c r="J147" s="20"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="6" t="s">
+      <c r="C150" s="18"/>
+      <c r="D150" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="E150" s="7"/>
-      <c r="F150" s="8" t="s">
+      <c r="E150" s="14"/>
+      <c r="F150" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G150" s="9"/>
-      <c r="H150" s="10" t="s">
+      <c r="G150" s="20"/>
+      <c r="H150" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I150" s="11">
+      <c r="I150" s="6">
         <v>45013</v>
       </c>
-      <c r="J150" s="12" t="s">
+      <c r="J150" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="L150" t="s">
+      <c r="L150" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="N150" t="s">
+      <c r="N150" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="O150" t="s">
+      <c r="O150" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="P150" t="s">
+      <c r="P150" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="Q150" t="s">
+      <c r="Q150" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="R150" t="s">
+      <c r="R150" s="2" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="6" t="s">
+      <c r="C151" s="18"/>
+      <c r="D151" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="10" t="s">
+      <c r="E151" s="14"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I151" s="10" t="s">
+      <c r="I151" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J151" s="15"/>
-      <c r="L151" t="s">
+      <c r="J151" s="24"/>
+      <c r="L151" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="N151" t="s">
+      <c r="N151" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="O151" t="s">
+      <c r="O151" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="P151" s="25" t="s">
+      <c r="P151" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="Q151" s="26" t="s">
+      <c r="Q151" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="R151" t="s">
+      <c r="R151" s="2" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="152" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5" t="s">
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C153" s="16" t="s">
+      <c r="C153" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D153" s="17"/>
-      <c r="E153" s="10" t="s">
+      <c r="D153" s="16"/>
+      <c r="E153" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F153" s="10" t="s">
+      <c r="F153" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G153" s="10" t="s">
+      <c r="G153" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H153" s="10" t="s">
+      <c r="H153" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I153" s="6" t="s">
+      <c r="I153" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J153" s="7"/>
+      <c r="J153" s="14"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B154" s="10">
+      <c r="B154" s="5">
         <v>1</v>
       </c>
-      <c r="C154" s="16" t="s">
+      <c r="C154" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D154" s="17"/>
-      <c r="E154" s="10" t="s">
+      <c r="D154" s="16"/>
+      <c r="E154" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F154" s="10" t="s">
+      <c r="F154" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G154" s="10" t="s">
+      <c r="G154" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H154" s="10"/>
-      <c r="I154" s="6" t="s">
+      <c r="H154" s="5"/>
+      <c r="I154" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J154" s="7"/>
-      <c r="M154" s="21"/>
+      <c r="J154" s="14"/>
+      <c r="M154" s="9"/>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B155" s="10">
+      <c r="B155" s="5">
         <v>2</v>
       </c>
-      <c r="C155" s="16" t="s">
+      <c r="C155" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D155" s="17"/>
-      <c r="E155" s="10" t="s">
+      <c r="D155" s="16"/>
+      <c r="E155" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F155" s="10" t="s">
+      <c r="F155" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="6" t="s">
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J155" s="7"/>
-      <c r="M155" s="21"/>
+      <c r="J155" s="14"/>
+      <c r="M155" s="9"/>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B156" s="10">
+      <c r="B156" s="5">
         <v>3</v>
       </c>
-      <c r="C156" s="16" t="s">
+      <c r="C156" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D156" s="17"/>
-      <c r="E156" s="10" t="s">
+      <c r="D156" s="16"/>
+      <c r="E156" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F156" s="10" t="s">
+      <c r="F156" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="6" t="s">
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="J156" s="7"/>
-      <c r="M156" s="21"/>
+      <c r="J156" s="14"/>
+      <c r="M156" s="9"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B157" s="10">
+      <c r="B157" s="5">
         <v>4</v>
       </c>
-      <c r="C157" s="16" t="s">
+      <c r="C157" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D157" s="17"/>
-      <c r="E157" s="10" t="s">
+      <c r="D157" s="16"/>
+      <c r="E157" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F157" s="10" t="s">
+      <c r="F157" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="6" t="s">
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="J157" s="7"/>
-      <c r="M157" s="21"/>
+      <c r="J157" s="14"/>
+      <c r="M157" s="9"/>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B158" s="10">
+      <c r="B158" s="5">
         <v>5</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C158" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D158" s="17"/>
-      <c r="E158" s="10" t="s">
+      <c r="D158" s="16"/>
+      <c r="E158" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F158" s="10" t="s">
+      <c r="F158" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="6" t="s">
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="J158" s="7"/>
-      <c r="M158" s="21"/>
+      <c r="J158" s="14"/>
+      <c r="M158" s="9"/>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B159" s="10">
+      <c r="B159" s="5">
         <v>6</v>
       </c>
-      <c r="C159" s="16" t="s">
+      <c r="C159" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D159" s="17"/>
-      <c r="E159" s="10" t="s">
+      <c r="D159" s="16"/>
+      <c r="E159" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F159" s="10" t="s">
+      <c r="F159" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="6" t="s">
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J159" s="7"/>
-      <c r="M159" s="21"/>
+      <c r="J159" s="14"/>
+      <c r="M159" s="9"/>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B160" s="10">
+      <c r="B160" s="5">
         <v>7</v>
       </c>
-      <c r="C160" s="16" t="s">
+      <c r="C160" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D160" s="17"/>
-      <c r="E160" s="10" t="s">
+      <c r="D160" s="16"/>
+      <c r="E160" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F160" s="10" t="s">
+      <c r="F160" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="6" t="s">
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="J160" s="7"/>
+      <c r="J160" s="14"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B161" s="10">
+      <c r="B161" s="5">
         <v>8</v>
       </c>
-      <c r="C161" s="16"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="7"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="14"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B162" s="10">
+      <c r="B162" s="5">
         <v>9</v>
       </c>
-      <c r="C162" s="18"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="14"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B163" s="10">
+      <c r="B163" s="5">
         <v>10</v>
       </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="7"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="14"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B164" s="20" t="s">
+      <c r="B164" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C164" s="20"/>
-      <c r="D164" s="20"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="20"/>
-      <c r="J164" s="20"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="B96:J96"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:J101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G117"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="B113:J113"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="E118:J118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="B130:J130"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="E135:J135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:G134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="I143:J143"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="I144:J144"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="I146:J146"/>
+    <mergeCell ref="B147:J147"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:J152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="I154:J154"/>
     <mergeCell ref="C161:D161"/>
     <mergeCell ref="I161:J161"/>
     <mergeCell ref="I162:J162"/>
@@ -16330,148 +17642,10 @@
     <mergeCell ref="I159:J159"/>
     <mergeCell ref="C160:D160"/>
     <mergeCell ref="I160:J160"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:J152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:G151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="I144:J144"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="I146:J146"/>
-    <mergeCell ref="B147:J147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="I142:J142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="I143:J143"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="E135:J135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:G134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="B130:J130"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="E118:J118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G117"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="B113:J113"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:J101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:G100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="B96:J96"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P151" r:id="rId1"/>
+    <hyperlink ref="P151" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
